--- a/signals.xlsx
+++ b/signals.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\MyLua\22--LithiumTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\MyTrading\TS\Lithium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98F44A3-B272-4BF0-B3A1-8B78C42B0BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02E198E-9143-4663-A734-167673A272E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A017C65D-FECF-4C70-B6B8-A3D5DB49F3EA}"/>
   </bookViews>
@@ -20,21 +20,48 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Felix Krivosheev</author>
+  </authors>
+  <commentList>
+    <comment ref="W6" authorId="0" shapeId="0" xr:uid="{9E61649E-81F9-4E8A-8FD4-2FB6C0284E62}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Felix Krivosheev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+StochFast like Lane Knee</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="58">
   <si>
     <t>Uturn</t>
   </si>
@@ -108,9 +135,6 @@
     <t>TrendZoneOn</t>
   </si>
   <si>
-    <t>TrendZoneOff</t>
-  </si>
-  <si>
     <t>ExtZoneOn</t>
   </si>
   <si>
@@ -135,20 +159,89 @@
     <t>Description</t>
   </si>
   <si>
-    <t>BreakDownBorder</t>
-  </si>
-  <si>
-    <t>Zigzag Lane knee)</t>
-  </si>
-  <si>
     <t>Doubles</t>
+  </si>
+  <si>
+    <t>Leg1Zigzag-&gt;Leg2Zigzag</t>
+  </si>
+  <si>
+    <t>Leg1Zigzag-&gt;Leg2Zigzag-&gt;TrendOn</t>
+  </si>
+  <si>
+    <t>End of pro-trend, start contr-trend, after DeepPullback/Diver/RCC/Volume, RSICross early near border TZ/SZ, StochSlow ExtZoneOff</t>
+  </si>
+  <si>
+    <t>Continue reverse pro-trend started by Leg1ZigZag, after ZigZag (little pullback) near XL, RSIUturn with TrendBias/50 with modulus, Stoch get Lanу knree</t>
+  </si>
+  <si>
+    <t>Second phase of reverse, price in contr-trend sentiment zone</t>
+  </si>
+  <si>
+    <t>Trend for diver (slowing trend speed) and to start first phase of trend reverse, price in pro-trend sentiment zone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third last phase of trend reverse, Price one-shot impulse breakout to stable trend </t>
+  </si>
+  <si>
+    <t>Get stable trend , Price breakdown early local extremum (maximum  contr-side achievement) after breakout CL, RSISlow RSITrendOn after RSIShot, StochSlow StochExtZoneOn</t>
+  </si>
+  <si>
+    <t>Get stable trend , Price consolidated near CL after breakout CL, breakout border reverse consolidation to stable trend , RSI lost momentum and RSICross near border SZ/TZ, RSITrendOn, StochSlow  probably  StochExtZoneOn</t>
+  </si>
+  <si>
+    <t>Get stable trend , Price consolidated near CL after breakout CL, breakout border reverse consolidation to stable trend , RSI keep momentum, RSIUturn in SZ, RSITrendOn, StochSlow  probably  StochExtZoneOn</t>
+  </si>
+  <si>
+    <t>Price in stable trend and get little pullbacks, RSI keep momentum</t>
+  </si>
+  <si>
+    <t>Stable trend, Price get pullback that used to join trend, RSI in TZ and keep momentum, Stoch in ExtZone</t>
+  </si>
+  <si>
+    <t>Throwing/Leg1Double</t>
+  </si>
+  <si>
+    <t>Leg2Double</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>propably</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>unneсessary</t>
+  </si>
+  <si>
+    <t>neсessary</t>
+  </si>
+  <si>
+    <t>Price move to CL in zone concolidation, reverse and breakout border concolidation, RSI lost momentum before and get it back when breakout border SZ/TZ</t>
+  </si>
+  <si>
+    <t>Price move to CL in zone concolidation, reverse and breakout border concolidation, RSI keep momentum in SZ before breakout border SZ/TZ</t>
+  </si>
+  <si>
+    <t>Momentum</t>
+  </si>
+  <si>
+    <t>BreakOutBorder</t>
+  </si>
+  <si>
+    <t>Zigzag/Lane knee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,11 +262,26 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="13">
@@ -245,7 +353,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="-0.499984740745262"/>
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -262,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -282,11 +390,19 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -600,94 +716,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2DE34F-F632-4162-BD72-B998F41B8401}">
-  <dimension ref="A1:AF10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2DE34F-F632-4162-BD72-B998F41B8401}">
+  <dimension ref="A1:AF14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4:AF4"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AF1" sqref="AF1:AF1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="8" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="7" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
+      <c r="I1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="10" t="s">
+      <c r="A2" s="19"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="12" t="s">
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
       <c r="X2" s="16" t="s">
         <v>21</v>
       </c>
@@ -703,55 +820,55 @@
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="O3" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="12" t="s">
+      <c r="O3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="12" t="s">
+      <c r="R3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="U3" s="12" t="s">
+      <c r="T3" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="U3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="V3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="W3" s="13" t="s">
+      <c r="V3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="17" t="s">
         <v>1</v>
       </c>
       <c r="X3" s="16" t="s">
@@ -779,17 +896,17 @@
         <v>23</v>
       </c>
       <c r="AF3" s="16" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -831,36 +948,90 @@
         <v>4</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
-      <c r="Z5" s="15"/>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="15"/>
-      <c r="AC5" s="15"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
+      <c r="F5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="U5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="V5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W5" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="X5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z5" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC5" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF5" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -873,207 +1044,504 @@
         <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
-      <c r="AB6" s="15"/>
-      <c r="AC6" s="15"/>
-      <c r="AD6" s="15"/>
-      <c r="AE6" s="15"/>
-      <c r="AF6" s="15"/>
+        <v>6</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="X6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF6" s="14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="H7" s="9"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
-      <c r="AB7" s="15"/>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="15"/>
+      <c r="I7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="U7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="V7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="W7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="X7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD7" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF7" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+        <v>7</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="H8" s="9"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="15"/>
-      <c r="Y8" s="15"/>
-      <c r="Z8" s="15"/>
-      <c r="AA8" s="15"/>
-      <c r="AB8" s="15"/>
-      <c r="AC8" s="15"/>
-      <c r="AD8" s="15"/>
-      <c r="AE8" s="15"/>
-      <c r="AF8" s="15"/>
+      <c r="I8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="X8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF8" s="14" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="H9" s="9"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="15"/>
-      <c r="Y9" s="15"/>
-      <c r="Z9" s="15"/>
-      <c r="AA9" s="15"/>
-      <c r="AB9" s="15"/>
-      <c r="AC9" s="15"/>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="15"/>
+      <c r="I9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="U9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB9" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF9" s="14" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+        <v>6</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>44</v>
+      </c>
       <c r="H10" s="9"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
+      <c r="I10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="U10" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="V10" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="W10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="X10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA10" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE10" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF10" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/signals.xlsx
+++ b/signals.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felix\Documents\MyTrading\TS\Lithium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\MyLua\22--LithiumTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02E198E-9143-4663-A734-167673A272E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{332549BE-C063-41F1-93EC-64161F692E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A017C65D-FECF-4C70-B6B8-A3D5DB49F3EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{A017C65D-FECF-4C70-B6B8-A3D5DB49F3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,8 +61,122 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Felix Krivosheev</author>
+  </authors>
+  <commentList>
+    <comment ref="Z5" authorId="0" shapeId="0" xr:uid="{54F2FAE1-BD78-4282-8DFB-92FAE82A5088}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Felix Krivosheev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+First diver leg have spring, legs 2 and 3 havn't spring</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W7" authorId="0" shapeId="0" xr:uid="{45FCDA7E-E849-4806-9CEE-AC74E5F9E4EF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Felix Krivosheev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+StochFast like Lane Knee</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y7" authorId="0" shapeId="0" xr:uid="{CCC5F46F-C710-4CF6-8C8C-297D941C2EB8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Felix Krivosheev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+yes with TrendBias</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y8" authorId="0" shapeId="0" xr:uid="{EDAED611-8625-4AC8-97F3-BCEF67A61C45}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Felix Krivosheev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+yes with TrendBias</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="66">
   <si>
     <t>Uturn</t>
   </si>
@@ -177,9 +292,6 @@
     <t>Second phase of reverse, price in contr-trend sentiment zone</t>
   </si>
   <si>
-    <t>Trend for diver (slowing trend speed) and to start first phase of trend reverse, price in pro-trend sentiment zone</t>
-  </si>
-  <si>
     <t xml:space="preserve">Third last phase of trend reverse, Price one-shot impulse breakout to stable trend </t>
   </si>
   <si>
@@ -235,13 +347,40 @@
   </si>
   <si>
     <t>Zigzag/Lane knee</t>
+  </si>
+  <si>
+    <t>Leg1ZigzagDiver</t>
+  </si>
+  <si>
+    <t>Leg1ZigzagSpring</t>
+  </si>
+  <si>
+    <t>Diver in trend (slowing trend speed) and to start first phase of trend reverse</t>
+  </si>
+  <si>
+    <t>Spring  in trend (slowing trend speed) and start first phase of trend reverse</t>
+  </si>
+  <si>
+    <t>Diver  in trend (slowing trend speed) and start first phase of trend reverse. First diver leg have spring, legs 2 and 3 havn't spring</t>
+  </si>
+  <si>
+    <t>Second phase of reverse/contr-trend move, price in contr-trend sentiment zone</t>
+  </si>
+  <si>
+    <t>Price in stable trend, move to CL, form zone concolidation near CL, reverse and breakout border concolidation. RSI keep momentum in SZ before breakout border SZ/TZ</t>
+  </si>
+  <si>
+    <t>End of pro-trend, start contr-trend, after DeepPullback+Diver/RCC/Volume, RSICross early near border TZ/SZ, StochSlow ExtZoneOff</t>
+  </si>
+  <si>
+    <t>yes/+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,6 +421,16 @@
       <name val="Tahoma"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="13">
@@ -370,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -403,6 +552,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -719,9 +875,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2DE34F-F632-4162-BD72-B998F41B8401}">
   <dimension ref="A1:AF14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <pane xSplit="2" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF1" sqref="AF1:AF1048576"/>
+      <selection pane="topRight" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P3" s="17" t="s">
         <v>14</v>
@@ -860,7 +1016,7 @@
         <v>17</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U3" s="17" t="s">
         <v>22</v>
@@ -896,7 +1052,7 @@
         <v>23</v>
       </c>
       <c r="AF3" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
@@ -952,85 +1108,85 @@
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>35</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O5" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R5" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S5" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T5" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U5" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="V5" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W5" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X5" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y5" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z5" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA5" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB5" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC5" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AD5" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AE5" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF5" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
@@ -1056,79 +1212,79 @@
         <v>36</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q6" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R6" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S6" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T6" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U6" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V6" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W6" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X6" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y6" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z6" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA6" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB6" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AC6" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD6" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AE6" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF6" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
@@ -1148,83 +1304,83 @@
         <v>33</v>
       </c>
       <c r="F7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="H7" s="9"/>
       <c r="I7" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R7" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S7" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U7" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V7" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W7" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="X7" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y7" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z7" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB7" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC7" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD7" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AE7" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF7" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1244,83 +1400,83 @@
         <v>33</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O8" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R8" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S8" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T8" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U8" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V8" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W8" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X8" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y8" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z8" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AA8" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB8" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC8" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD8" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AE8" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AF8" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
@@ -1340,83 +1496,83 @@
         <v>33</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R9" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T9" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U9" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V9" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W9" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X9" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y9" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z9" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA9" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AB9" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AC9" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD9" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AE9" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF9" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
@@ -1436,106 +1592,825 @@
         <v>34</v>
       </c>
       <c r="F10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P10" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R10" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="S10" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T10" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U10" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="V10" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W10" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="X10" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Y10" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z10" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AA10" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AB10" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AC10" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD10" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AE10" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AF10" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="9" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAF3AE5-6614-4A5A-BB98-2696BADD0926}">
+  <dimension ref="A1:AF13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AD13" sqref="AD13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="128.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="188.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="19"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16"/>
+      <c r="AF2" s="16"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="P3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="R3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE3" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF3" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="16"/>
+      <c r="AF4" s="16"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="14"/>
+      <c r="AF5" s="14"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="14"/>
+      <c r="AE6" s="14"/>
+      <c r="AF6" s="14"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="X8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA9" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="14"/>
+      <c r="AF9" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="13"/>
+      <c r="X10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="14"/>
+      <c r="AE10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF10" s="14"/>
+    </row>
+    <row r="11" spans="1:32" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>51</v>
       </c>
     </row>

--- a/signals.xlsx
+++ b/signals.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\MyLua\22--LithiumTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{332549BE-C063-41F1-93EC-64161F692E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927371F4-8C57-484B-82EC-BB16751DBBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{A017C65D-FECF-4C70-B6B8-A3D5DB49F3EA}"/>
   </bookViews>
@@ -20,6 +20,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -171,12 +180,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{1C6D9AD5-9521-417B-8FF7-84C7492BE75C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Felix Krivosheev:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+with little single spring.you can switch to lesser scale</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="68">
   <si>
     <t>Uturn</t>
   </si>
@@ -374,13 +407,19 @@
   </si>
   <si>
     <t>yes/+</t>
+  </si>
+  <si>
+    <t>Third last phase of trend reverse, Price one-shot impulse breakout to stable trend  from SZ to TZ</t>
+  </si>
+  <si>
+    <t>End of pro-trend, start contr-trend, spile v-like reverse, after DeepPullback/RCC/Volume, RSICross early near border TZ/SZ, StochSlow ExtZoneOff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,6 +470,19 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1708,7 +1760,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD13" sqref="AD13"/>
+      <selection pane="topRight" activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2040,13 +2092,15 @@
       <c r="F6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="H6" s="9" t="s">
         <v>44</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>46</v>
@@ -2344,7 +2398,7 @@
         <v>33</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>39</v>

--- a/signals.xlsx
+++ b/signals.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\MyLua\22--LithiumTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927371F4-8C57-484B-82EC-BB16751DBBEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89964599-2595-41AD-A0CC-EAF24B3B18ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{A017C65D-FECF-4C70-B6B8-A3D5DB49F3EA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{A017C65D-FECF-4C70-B6B8-A3D5DB49F3EA}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="170921" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -209,7 +210,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="91">
   <si>
     <t>Uturn</t>
   </si>
@@ -413,6 +414,75 @@
   </si>
   <si>
     <t>End of pro-trend, start contr-trend, spile v-like reverse, after DeepPullback/RCC/Volume, RSICross early near border TZ/SZ, StochSlow ExtZoneOff</t>
+  </si>
+  <si>
+    <t>Uturn3</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Elementary</t>
+  </si>
+  <si>
+    <t>LightPullback</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>StochFast</t>
+  </si>
+  <si>
+    <t>StochSlow</t>
+  </si>
+  <si>
+    <t>RSISLow</t>
+  </si>
+  <si>
+    <t>RSIFast</t>
+  </si>
+  <si>
+    <t>Uturn4</t>
+  </si>
+  <si>
+    <t>Leg1ZZ</t>
+  </si>
+  <si>
+    <t>TrendOff</t>
+  </si>
+  <si>
+    <t>Breakout</t>
+  </si>
+  <si>
+    <t>Leg2ZZ</t>
+  </si>
+  <si>
+    <t>NormalPullback</t>
+  </si>
+  <si>
+    <t>Spring50</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Dirуction</t>
+  </si>
+  <si>
+    <t>SZRelation (CrossCL)</t>
+  </si>
+  <si>
+    <t>SZRelation (SlowCross50)</t>
+  </si>
+  <si>
+    <t>RSIRelation (Cross)</t>
+  </si>
+  <si>
+    <t>StochRelation (Cross)</t>
   </si>
 </sst>
 </file>
@@ -485,7 +555,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,6 +628,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -571,7 +647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -611,6 +687,11 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1758,7 +1839,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACAF3AE5-6614-4A5A-BB98-2696BADD0926}">
   <dimension ref="A1:AF13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="50" workbookViewId="0">
       <pane xSplit="2" topLeftCell="H1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="U6" sqref="U6"/>
     </sheetView>
@@ -2473,4 +2554,711 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7833670-B487-4879-8BD3-74D4CB870EAD}">
+  <dimension ref="A1:Z13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="L3" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="S3" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="T3" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="U3" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="V3" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="X3" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y3" s="30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="31">
+        <v>1</v>
+      </c>
+      <c r="B4" s="32">
+        <v>0.30555555555555552</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="T4" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="V4" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" s="31">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="29">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" s="31"/>
+      <c r="Q5" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="S5" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="T5" t="s">
+        <v>68</v>
+      </c>
+      <c r="U5" t="s">
+        <v>68</v>
+      </c>
+      <c r="X5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z5">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="29">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="S6" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="T6" t="s">
+        <v>68</v>
+      </c>
+      <c r="U6" t="s">
+        <v>68</v>
+      </c>
+      <c r="W6" t="s">
+        <v>79</v>
+      </c>
+      <c r="X6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="29">
+        <v>0.375</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="S7" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="T7" t="s">
+        <v>68</v>
+      </c>
+      <c r="U7" t="s">
+        <v>68</v>
+      </c>
+      <c r="X7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="29">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="P8" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1</v>
+      </c>
+      <c r="R8" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="S8" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="T8" t="s">
+        <v>68</v>
+      </c>
+      <c r="U8" t="s">
+        <v>68</v>
+      </c>
+      <c r="X8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="29">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="K9" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="L9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="P9" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="T9" t="s">
+        <v>68</v>
+      </c>
+      <c r="U9" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z9">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="29">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M10" t="s">
+        <v>68</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="P10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>83</v>
+      </c>
+      <c r="R10" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="S10" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="T10" t="s">
+        <v>68</v>
+      </c>
+      <c r="U10" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="29">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="P11" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="R11" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="S11" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="T11" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="U11" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="V11" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z11">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="29">
+        <v>0.51736111111111105</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="Z12">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="29">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="L13" t="s">
+        <v>68</v>
+      </c>
+      <c r="M13" t="s">
+        <v>68</v>
+      </c>
+      <c r="P13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="S13" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="T13" t="s">
+        <v>68</v>
+      </c>
+      <c r="U13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z13">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>